--- a/data/dividends_info_20260121.xlsx
+++ b/data/dividends_info_20260121.xlsx
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>23.48500061035156</v>
+        <v>24.23999977111816</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3832233240834169</v>
+        <v>0.3712871322186832</v>
       </c>
       <c r="J3" t="n">
         <v>61</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>56.34999847412109</v>
+        <v>55.70000076293945</v>
       </c>
       <c r="I4" t="n">
-        <v>1.153504911448249</v>
+        <v>1.166965872705129</v>
       </c>
       <c r="J4" t="n">
         <v>33</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.2380000054836273</v>
+        <v>0.2409999966621399</v>
       </c>
       <c r="I6" t="n">
-        <v>25.21008345276175</v>
+        <v>24.8962659049803</v>
       </c>
       <c r="J6" t="n">
         <v>12</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.937000274658203</v>
+        <v>8.838000297546387</v>
       </c>
       <c r="I7" t="n">
-        <v>2.573570470308578</v>
+        <v>2.602398645130763</v>
       </c>
       <c r="J7" t="n">
         <v>-2</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5.72599983215332</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="I8" t="n">
-        <v>2.109675227750957</v>
+        <v>2.145648268996455</v>
       </c>
       <c r="J8" t="n">
         <v>-2</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>24.89999961853027</v>
+        <v>24.70000076293945</v>
       </c>
       <c r="I9" t="n">
-        <v>2.891566309359237</v>
+        <v>2.914979667046437</v>
       </c>
       <c r="J9" t="n">
         <v>-12</v>
@@ -927,7 +927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2094,7 +2094,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Antares Vision S.p.A.</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2104,14 +2104,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>INTERPUMP GROUP S.p.A.</t>
+          <t>Riba Mundo Tecnologia S.A.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2121,14 +2121,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Riba Mundo Tecnologia S.A.</t>
+          <t>Vimi Fasteners S.p.A.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>Antares Vision S.p.A.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2155,14 +2155,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Vimi Fasteners S.p.A.</t>
+          <t>INTERPUMP GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Unipol S.p.A.</t>
+          <t>Moncler S.p.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2257,14 +2257,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Moncler S.p.A.</t>
+          <t>Unipol S.p.A.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -2290,6 +2290,23 @@
         </is>
       </c>
       <c r="C80" t="inlineStr">
+        <is>
+          <t>Annual Preliminary Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ESAUTOMOTION S.p.A.</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>Annual Preliminary Results</t>
         </is>
@@ -2324,7 +2341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2352,1190 +2369,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abitare In S.p.A.</t>
+          <t>ESAUTOMOTION S.p.A.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Antares Vision S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Additional Periodic Financial Information</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Arterra Bioscience S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>BANCA IFIS S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-02-11</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Half Year Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>BREMBO N.V.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>BUZZI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Banca Generali S.p.A.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-02-11</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Banco BPM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Basic Net S.p.A.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Basic Net S.p.A.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>COMPAGNIA DEI CARAIBI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CONVERGENZE S.p.A. SOCIETA' BENEFIT</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Cementir Holding N.V.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Cementir Holding N.V.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>DE' LONGHI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>DEA CAPITAL REAL ESTATE SGR S.p.A.</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ECOSUNTEK S.p.A.</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>EDISON S.p.A.</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ELES S.p.A.</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ELICA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ELSA Solutions S.p.A.</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>EMAK S.p.A.</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ENEL S.p.A.</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Ferrari N.V.</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Additional Periodic Financial Information</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Ferrari N.V.</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Ferrari N.V.</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>FinecoBank S.p.A.</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>FinecoBank S.p.A.</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>First Capital S.p.A.</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>GEFRAN S.p.A.</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Generalfinance S.p.A.</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Giocamondo Study S.p.A.</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Annual General Meeting</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>H-FARM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Annual General Meeting</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>INTERPUMP GROUP S.p.A.</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Additional Periodic Financial Information</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Intesa Sanpaolo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2026-02-01</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Intesa Sanpaolo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Intred S.p.A.</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Leone Film Group S.p.A.</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Half Year Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Moncler S.p.A.</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Moncler S.p.A.</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Nusco S.p.A.</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>PIQUADRO S.p.A.</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Additional Periodic Financial Information</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Pattern S.p.A.</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Racing Force S.p.A.</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Riba Mundo Tecnologia S.A.</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>SAFILO GROUP S.p.A.</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>SOGES GROUP S.p.A.</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Additional Periodic Financial Information</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>SOGES GROUP S.p.A.</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>STMicroelectronics N.V.</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Additional Periodic Financial Information</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>STMicroelectronics N.V.</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Sanlorenzo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Sanlorenzo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>UNIDATA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2026-02-11</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Ubaldi Costruzioni S.p.A.</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Unicredit S.p.A.</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2026-02-08</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Additional Periodic Financial Information</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Unicredit S.p.A.</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Unipol S.p.A.</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>VALTECNE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>VNE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Additional Periodic Financial Information</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Vimi Fasteners S.p.A.</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Additional Periodic Financial Information</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>eVISO S.p.A.</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2026-02-11</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Half Year Preliminary Results</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
